--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Slit1-Gpc1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Slit1-Gpc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Gpc1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.348004365858977</v>
+        <v>0.245608</v>
       </c>
       <c r="H2">
-        <v>0.348004365858977</v>
+        <v>0.7368239999999999</v>
       </c>
       <c r="I2">
-        <v>0.371166172502566</v>
+        <v>0.1506672452144055</v>
       </c>
       <c r="J2">
-        <v>0.371166172502566</v>
+        <v>0.1506672452144055</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.22694067102301</v>
+        <v>2.407369</v>
       </c>
       <c r="N2">
-        <v>2.22694067102301</v>
+        <v>7.222107</v>
       </c>
       <c r="O2">
-        <v>0.05347545229901366</v>
+        <v>0.05267229306167105</v>
       </c>
       <c r="P2">
-        <v>0.05347545229901366</v>
+        <v>0.05267229306167105</v>
       </c>
       <c r="Q2">
-        <v>0.7749850760249273</v>
+        <v>0.591269085352</v>
       </c>
       <c r="R2">
-        <v>0.7749850760249273</v>
+        <v>5.321421768167999</v>
       </c>
       <c r="S2">
-        <v>0.01984827895266844</v>
+        <v>0.007935989294727821</v>
       </c>
       <c r="T2">
-        <v>0.01984827895266844</v>
+        <v>0.007935989294727821</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.348004365858977</v>
+        <v>0.245608</v>
       </c>
       <c r="H3">
-        <v>0.348004365858977</v>
+        <v>0.7368239999999999</v>
       </c>
       <c r="I3">
-        <v>0.371166172502566</v>
+        <v>0.1506672452144055</v>
       </c>
       <c r="J3">
-        <v>0.371166172502566</v>
+        <v>0.1506672452144055</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.6027199574079</v>
+        <v>11.67754066666667</v>
       </c>
       <c r="N3">
-        <v>11.6027199574079</v>
+        <v>35.032622</v>
       </c>
       <c r="O3">
-        <v>0.2786157286067946</v>
+        <v>0.2555000268900398</v>
       </c>
       <c r="P3">
-        <v>0.2786157286067946</v>
+        <v>0.2555000268900398</v>
       </c>
       <c r="Q3">
-        <v>4.037797201017033</v>
+        <v>2.868097408058667</v>
       </c>
       <c r="R3">
-        <v>4.037797201017033</v>
+        <v>25.812876672528</v>
       </c>
       <c r="S3">
-        <v>0.1034127335859976</v>
+        <v>0.03849548520372882</v>
       </c>
       <c r="T3">
-        <v>0.1034127335859976</v>
+        <v>0.03849548520372883</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.348004365858977</v>
+        <v>0.245608</v>
       </c>
       <c r="H4">
-        <v>0.348004365858977</v>
+        <v>0.7368239999999999</v>
       </c>
       <c r="I4">
-        <v>0.371166172502566</v>
+        <v>0.1506672452144055</v>
       </c>
       <c r="J4">
-        <v>0.371166172502566</v>
+        <v>0.1506672452144055</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.92177085021723</v>
+        <v>3.130105</v>
       </c>
       <c r="N4">
-        <v>2.92177085021723</v>
+        <v>9.390314999999999</v>
       </c>
       <c r="O4">
-        <v>0.07016038629249395</v>
+        <v>0.06848547433891598</v>
       </c>
       <c r="P4">
-        <v>0.07016038629249395</v>
+        <v>0.06848547433891598</v>
       </c>
       <c r="Q4">
-        <v>1.016789011915091</v>
+        <v>0.7687788288399998</v>
       </c>
       <c r="R4">
-        <v>1.016789011915091</v>
+        <v>6.919009459559999</v>
       </c>
       <c r="S4">
-        <v>0.02604116204148648</v>
+        <v>0.01031851775584633</v>
       </c>
       <c r="T4">
-        <v>0.02604116204148648</v>
+        <v>0.01031851775584633</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.348004365858977</v>
+        <v>0.245608</v>
       </c>
       <c r="H5">
-        <v>0.348004365858977</v>
+        <v>0.7368239999999999</v>
       </c>
       <c r="I5">
-        <v>0.371166172502566</v>
+        <v>0.1506672452144055</v>
       </c>
       <c r="J5">
-        <v>0.371166172502566</v>
+        <v>0.1506672452144055</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.17639567801089</v>
+        <v>2.949797</v>
       </c>
       <c r="N5">
-        <v>2.17639567801089</v>
+        <v>8.849391000000001</v>
       </c>
       <c r="O5">
-        <v>0.05226171706217327</v>
+        <v>0.06454040575268606</v>
       </c>
       <c r="P5">
-        <v>0.05226171706217327</v>
+        <v>0.06454040575268606</v>
       </c>
       <c r="Q5">
-        <v>0.757395197784398</v>
+        <v>0.724493741576</v>
       </c>
       <c r="R5">
-        <v>0.757395197784398</v>
+        <v>6.520443674184</v>
       </c>
       <c r="S5">
-        <v>0.0193977814903789</v>
+        <v>0.009724125139777178</v>
       </c>
       <c r="T5">
-        <v>0.0193977814903789</v>
+        <v>0.009724125139777178</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.348004365858977</v>
+        <v>0.245608</v>
       </c>
       <c r="H6">
-        <v>0.348004365858977</v>
+        <v>0.7368239999999999</v>
       </c>
       <c r="I6">
-        <v>0.371166172502566</v>
+        <v>0.1506672452144055</v>
       </c>
       <c r="J6">
-        <v>0.371166172502566</v>
+        <v>0.1506672452144055</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>22.7163399383818</v>
+        <v>25.53984366666667</v>
       </c>
       <c r="N6">
-        <v>22.7163399383818</v>
+        <v>76.61953099999999</v>
       </c>
       <c r="O6">
-        <v>0.5454867157395246</v>
+        <v>0.5588017999566871</v>
       </c>
       <c r="P6">
-        <v>0.5454867157395246</v>
+        <v>0.5588017999566871</v>
       </c>
       <c r="Q6">
-        <v>7.905385474893511</v>
+        <v>6.272789923282666</v>
       </c>
       <c r="R6">
-        <v>7.905385474893511</v>
+        <v>56.45510930954399</v>
       </c>
       <c r="S6">
-        <v>0.2024662164320346</v>
+        <v>0.08419312782032534</v>
       </c>
       <c r="T6">
-        <v>0.2024662164320346</v>
+        <v>0.08419312782032534</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.430253376690195</v>
+        <v>0.3313006666666667</v>
       </c>
       <c r="H7">
-        <v>0.430253376690195</v>
+        <v>0.9939020000000001</v>
       </c>
       <c r="I7">
-        <v>0.458889355132741</v>
+        <v>0.2032350688265964</v>
       </c>
       <c r="J7">
-        <v>0.458889355132741</v>
+        <v>0.2032350688265964</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.22694067102301</v>
+        <v>2.407369</v>
       </c>
       <c r="N7">
-        <v>2.22694067102301</v>
+        <v>7.222107</v>
       </c>
       <c r="O7">
-        <v>0.05347545229901366</v>
+        <v>0.05267229306167105</v>
       </c>
       <c r="P7">
-        <v>0.05347545229901366</v>
+        <v>0.05267229306167105</v>
       </c>
       <c r="Q7">
-        <v>0.9581487433963787</v>
+        <v>0.7975629546126668</v>
       </c>
       <c r="R7">
-        <v>0.9581487433963787</v>
+        <v>7.178066591514001</v>
       </c>
       <c r="S7">
-        <v>0.02453931582092603</v>
+        <v>0.01070485710564337</v>
       </c>
       <c r="T7">
-        <v>0.02453931582092603</v>
+        <v>0.01070485710564337</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.430253376690195</v>
+        <v>0.3313006666666667</v>
       </c>
       <c r="H8">
-        <v>0.430253376690195</v>
+        <v>0.9939020000000001</v>
       </c>
       <c r="I8">
-        <v>0.458889355132741</v>
+        <v>0.2032350688265964</v>
       </c>
       <c r="J8">
-        <v>0.458889355132741</v>
+        <v>0.2032350688265964</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.6027199574079</v>
+        <v>11.67754066666667</v>
       </c>
       <c r="N8">
-        <v>11.6027199574079</v>
+        <v>35.032622</v>
       </c>
       <c r="O8">
-        <v>0.2786157286067946</v>
+        <v>0.2555000268900398</v>
       </c>
       <c r="P8">
-        <v>0.2786157286067946</v>
+        <v>0.2555000268900398</v>
       </c>
       <c r="Q8">
-        <v>4.992109440465464</v>
+        <v>3.868777007893778</v>
       </c>
       <c r="R8">
-        <v>4.992109440465464</v>
+        <v>34.81899307104401</v>
       </c>
       <c r="S8">
-        <v>0.1278537920302107</v>
+        <v>0.05192656555019447</v>
       </c>
       <c r="T8">
-        <v>0.1278537920302107</v>
+        <v>0.05192656555019447</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.430253376690195</v>
+        <v>0.3313006666666667</v>
       </c>
       <c r="H9">
-        <v>0.430253376690195</v>
+        <v>0.9939020000000001</v>
       </c>
       <c r="I9">
-        <v>0.458889355132741</v>
+        <v>0.2032350688265964</v>
       </c>
       <c r="J9">
-        <v>0.458889355132741</v>
+        <v>0.2032350688265964</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.92177085021723</v>
+        <v>3.130105</v>
       </c>
       <c r="N9">
-        <v>2.92177085021723</v>
+        <v>9.390314999999999</v>
       </c>
       <c r="O9">
-        <v>0.07016038629249395</v>
+        <v>0.06848547433891598</v>
       </c>
       <c r="P9">
-        <v>0.07016038629249395</v>
+        <v>0.06848547433891598</v>
       </c>
       <c r="Q9">
-        <v>1.257101774220945</v>
+        <v>1.037005873236667</v>
       </c>
       <c r="R9">
-        <v>1.257101774220945</v>
+        <v>9.333052859129999</v>
       </c>
       <c r="S9">
-        <v>0.03219585442162655</v>
+        <v>0.01391865009089169</v>
       </c>
       <c r="T9">
-        <v>0.03219585442162655</v>
+        <v>0.01391865009089169</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.430253376690195</v>
+        <v>0.3313006666666667</v>
       </c>
       <c r="H10">
-        <v>0.430253376690195</v>
+        <v>0.9939020000000001</v>
       </c>
       <c r="I10">
-        <v>0.458889355132741</v>
+        <v>0.2032350688265964</v>
       </c>
       <c r="J10">
-        <v>0.458889355132741</v>
+        <v>0.2032350688265964</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.17639567801089</v>
+        <v>2.949797</v>
       </c>
       <c r="N10">
-        <v>2.17639567801089</v>
+        <v>8.849391000000001</v>
       </c>
       <c r="O10">
-        <v>0.05226171706217327</v>
+        <v>0.06454040575268606</v>
       </c>
       <c r="P10">
-        <v>0.05226171706217327</v>
+        <v>0.06454040575268606</v>
       </c>
       <c r="Q10">
-        <v>0.9364015894781317</v>
+        <v>0.9772697126313334</v>
       </c>
       <c r="R10">
-        <v>0.9364015894781317</v>
+        <v>8.795427413682001</v>
       </c>
       <c r="S10">
-        <v>0.02398234564079046</v>
+        <v>0.01311687380524361</v>
       </c>
       <c r="T10">
-        <v>0.02398234564079046</v>
+        <v>0.01311687380524361</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.430253376690195</v>
+        <v>0.3313006666666667</v>
       </c>
       <c r="H11">
-        <v>0.430253376690195</v>
+        <v>0.9939020000000001</v>
       </c>
       <c r="I11">
-        <v>0.458889355132741</v>
+        <v>0.2032350688265964</v>
       </c>
       <c r="J11">
-        <v>0.458889355132741</v>
+        <v>0.2032350688265964</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>22.7163399383818</v>
+        <v>25.53984366666667</v>
       </c>
       <c r="N11">
-        <v>22.7163399383818</v>
+        <v>76.61953099999999</v>
       </c>
       <c r="O11">
-        <v>0.5454867157395246</v>
+        <v>0.5588017999566871</v>
       </c>
       <c r="P11">
-        <v>0.5454867157395246</v>
+        <v>0.5588017999566871</v>
       </c>
       <c r="Q11">
-        <v>9.773781964531105</v>
+        <v>8.461367233329112</v>
       </c>
       <c r="R11">
-        <v>9.773781964531105</v>
+        <v>76.15230509996201</v>
       </c>
       <c r="S11">
-        <v>0.2503180472191872</v>
+        <v>0.1135681222746233</v>
       </c>
       <c r="T11">
-        <v>0.2503180472191872</v>
+        <v>0.1135681222746233</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.159339462262296</v>
+        <v>0.3515086666666667</v>
       </c>
       <c r="H12">
-        <v>0.159339462262296</v>
+        <v>1.054526</v>
       </c>
       <c r="I12">
-        <v>0.1699444723646931</v>
+        <v>0.2156315855984146</v>
       </c>
       <c r="J12">
-        <v>0.1699444723646931</v>
+        <v>0.2156315855984146</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.22694067102301</v>
+        <v>2.407369</v>
       </c>
       <c r="N12">
-        <v>2.22694067102301</v>
+        <v>7.222107</v>
       </c>
       <c r="O12">
-        <v>0.05347545229901366</v>
+        <v>0.05267229306167105</v>
       </c>
       <c r="P12">
-        <v>0.05347545229901366</v>
+        <v>0.05267229306167105</v>
       </c>
       <c r="Q12">
-        <v>0.354839529010843</v>
+        <v>0.8462110673646668</v>
       </c>
       <c r="R12">
-        <v>0.354839529010843</v>
+        <v>7.615899606282001</v>
       </c>
       <c r="S12">
-        <v>0.00908785752541919</v>
+        <v>0.0113578100699925</v>
       </c>
       <c r="T12">
-        <v>0.00908785752541919</v>
+        <v>0.0113578100699925</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.159339462262296</v>
+        <v>0.3515086666666667</v>
       </c>
       <c r="H13">
-        <v>0.159339462262296</v>
+        <v>1.054526</v>
       </c>
       <c r="I13">
-        <v>0.1699444723646931</v>
+        <v>0.2156315855984146</v>
       </c>
       <c r="J13">
-        <v>0.1699444723646931</v>
+        <v>0.2156315855984146</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.6027199574079</v>
+        <v>11.67754066666667</v>
       </c>
       <c r="N13">
-        <v>11.6027199574079</v>
+        <v>35.032622</v>
       </c>
       <c r="O13">
-        <v>0.2786157286067946</v>
+        <v>0.2555000268900398</v>
       </c>
       <c r="P13">
-        <v>0.2786157286067946</v>
+        <v>0.2555000268900398</v>
       </c>
       <c r="Q13">
-        <v>1.848771158793385</v>
+        <v>4.104756749685778</v>
       </c>
       <c r="R13">
-        <v>1.848771158793385</v>
+        <v>36.942810747172</v>
       </c>
       <c r="S13">
-        <v>0.04734920299058623</v>
+        <v>0.05509387591873683</v>
       </c>
       <c r="T13">
-        <v>0.04734920299058623</v>
+        <v>0.05509387591873684</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.159339462262296</v>
+        <v>0.3515086666666667</v>
       </c>
       <c r="H14">
-        <v>0.159339462262296</v>
+        <v>1.054526</v>
       </c>
       <c r="I14">
-        <v>0.1699444723646931</v>
+        <v>0.2156315855984146</v>
       </c>
       <c r="J14">
-        <v>0.1699444723646931</v>
+        <v>0.2156315855984146</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.92177085021723</v>
+        <v>3.130105</v>
       </c>
       <c r="N14">
-        <v>2.92177085021723</v>
+        <v>9.390314999999999</v>
       </c>
       <c r="O14">
-        <v>0.07016038629249395</v>
+        <v>0.06848547433891598</v>
       </c>
       <c r="P14">
-        <v>0.07016038629249395</v>
+        <v>0.06848547433891598</v>
       </c>
       <c r="Q14">
-        <v>0.4655533961272648</v>
+        <v>1.100259035076667</v>
       </c>
       <c r="R14">
-        <v>0.4655533961272648</v>
+        <v>9.902331315690001</v>
       </c>
       <c r="S14">
-        <v>0.01192336982938093</v>
+        <v>0.01476763142215999</v>
       </c>
       <c r="T14">
-        <v>0.01192336982938093</v>
+        <v>0.01476763142215999</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.159339462262296</v>
+        <v>0.3515086666666667</v>
       </c>
       <c r="H15">
-        <v>0.159339462262296</v>
+        <v>1.054526</v>
       </c>
       <c r="I15">
-        <v>0.1699444723646931</v>
+        <v>0.2156315855984146</v>
       </c>
       <c r="J15">
-        <v>0.1699444723646931</v>
+        <v>0.2156315855984146</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.17639567801089</v>
+        <v>2.949797</v>
       </c>
       <c r="N15">
-        <v>2.17639567801089</v>
+        <v>8.849391000000001</v>
       </c>
       <c r="O15">
-        <v>0.05226171706217327</v>
+        <v>0.06454040575268606</v>
       </c>
       <c r="P15">
-        <v>0.05226171706217327</v>
+        <v>0.06454040575268606</v>
       </c>
       <c r="Q15">
-        <v>0.3467857170042403</v>
+        <v>1.036879210407333</v>
       </c>
       <c r="R15">
-        <v>0.3467857170042403</v>
+        <v>9.331912893666001</v>
       </c>
       <c r="S15">
-        <v>0.008881589931003915</v>
+        <v>0.01391695002761673</v>
       </c>
       <c r="T15">
-        <v>0.008881589931003915</v>
+        <v>0.01391695002761673</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.3515086666666667</v>
+      </c>
+      <c r="H16">
+        <v>1.054526</v>
+      </c>
+      <c r="I16">
+        <v>0.2156315855984146</v>
+      </c>
+      <c r="J16">
+        <v>0.2156315855984146</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>25.53984366666667</v>
+      </c>
+      <c r="N16">
+        <v>76.61953099999999</v>
+      </c>
+      <c r="O16">
+        <v>0.5588017999566871</v>
+      </c>
+      <c r="P16">
+        <v>0.5588017999566871</v>
+      </c>
+      <c r="Q16">
+        <v>8.977476394145112</v>
+      </c>
+      <c r="R16">
+        <v>80.797287547306</v>
+      </c>
+      <c r="S16">
+        <v>0.1204953181599085</v>
+      </c>
+      <c r="T16">
+        <v>0.1204953181599085</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.5286433333333332</v>
+      </c>
+      <c r="H17">
+        <v>1.58593</v>
+      </c>
+      <c r="I17">
+        <v>0.3242941383598826</v>
+      </c>
+      <c r="J17">
+        <v>0.3242941383598826</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.407369</v>
+      </c>
+      <c r="N17">
+        <v>7.222107</v>
+      </c>
+      <c r="O17">
+        <v>0.05267229306167105</v>
+      </c>
+      <c r="P17">
+        <v>0.05267229306167105</v>
+      </c>
+      <c r="Q17">
+        <v>1.272639572723333</v>
+      </c>
+      <c r="R17">
+        <v>11.45375615451</v>
+      </c>
+      <c r="S17">
+        <v>0.01708131589387383</v>
+      </c>
+      <c r="T17">
+        <v>0.01708131589387383</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.5286433333333332</v>
+      </c>
+      <c r="H18">
+        <v>1.58593</v>
+      </c>
+      <c r="I18">
+        <v>0.3242941383598826</v>
+      </c>
+      <c r="J18">
+        <v>0.3242941383598826</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>11.67754066666667</v>
+      </c>
+      <c r="N18">
+        <v>35.032622</v>
+      </c>
+      <c r="O18">
+        <v>0.2555000268900398</v>
+      </c>
+      <c r="P18">
+        <v>0.2555000268900398</v>
+      </c>
+      <c r="Q18">
+        <v>6.173254023162221</v>
+      </c>
+      <c r="R18">
+        <v>55.55928620846</v>
+      </c>
+      <c r="S18">
+        <v>0.08285716107123227</v>
+      </c>
+      <c r="T18">
+        <v>0.0828571610712323</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.5286433333333332</v>
+      </c>
+      <c r="H19">
+        <v>1.58593</v>
+      </c>
+      <c r="I19">
+        <v>0.3242941383598826</v>
+      </c>
+      <c r="J19">
+        <v>0.3242941383598826</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>3.130105</v>
+      </c>
+      <c r="N19">
+        <v>9.390314999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.06848547433891598</v>
+      </c>
+      <c r="P19">
+        <v>0.06848547433891598</v>
+      </c>
+      <c r="Q19">
+        <v>1.654709140883333</v>
+      </c>
+      <c r="R19">
+        <v>14.89238226795</v>
+      </c>
+      <c r="S19">
+        <v>0.02220943789090661</v>
+      </c>
+      <c r="T19">
+        <v>0.02220943789090661</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.5286433333333332</v>
+      </c>
+      <c r="H20">
+        <v>1.58593</v>
+      </c>
+      <c r="I20">
+        <v>0.3242941383598826</v>
+      </c>
+      <c r="J20">
+        <v>0.3242941383598826</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2.949797</v>
+      </c>
+      <c r="N20">
+        <v>8.849391000000001</v>
+      </c>
+      <c r="O20">
+        <v>0.06454040575268606</v>
+      </c>
+      <c r="P20">
+        <v>0.06454040575268606</v>
+      </c>
+      <c r="Q20">
+        <v>1.559390518736667</v>
+      </c>
+      <c r="R20">
+        <v>14.03451466863</v>
+      </c>
+      <c r="S20">
+        <v>0.02093007527296454</v>
+      </c>
+      <c r="T20">
+        <v>0.02093007527296454</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.5286433333333332</v>
+      </c>
+      <c r="H21">
+        <v>1.58593</v>
+      </c>
+      <c r="I21">
+        <v>0.3242941383598826</v>
+      </c>
+      <c r="J21">
+        <v>0.3242941383598826</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>25.53984366666667</v>
+      </c>
+      <c r="N21">
+        <v>76.61953099999999</v>
+      </c>
+      <c r="O21">
+        <v>0.5588017999566871</v>
+      </c>
+      <c r="P21">
+        <v>0.5588017999566871</v>
+      </c>
+      <c r="Q21">
+        <v>13.50146808875889</v>
+      </c>
+      <c r="R21">
+        <v>121.51321279883</v>
+      </c>
+      <c r="S21">
+        <v>0.1812161482309053</v>
+      </c>
+      <c r="T21">
+        <v>0.1812161482309053</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.1730746666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.519224</v>
+      </c>
+      <c r="I22">
+        <v>0.106171962000701</v>
+      </c>
+      <c r="J22">
+        <v>0.106171962000701</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.407369</v>
+      </c>
+      <c r="N22">
+        <v>7.222107</v>
+      </c>
+      <c r="O22">
+        <v>0.05267229306167105</v>
+      </c>
+      <c r="P22">
+        <v>0.05267229306167105</v>
+      </c>
+      <c r="Q22">
+        <v>0.4166545872186667</v>
+      </c>
+      <c r="R22">
+        <v>3.749891284968</v>
+      </c>
+      <c r="S22">
+        <v>0.005592320697433524</v>
+      </c>
+      <c r="T22">
+        <v>0.005592320697433524</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.1730746666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.519224</v>
+      </c>
+      <c r="I23">
+        <v>0.106171962000701</v>
+      </c>
+      <c r="J23">
+        <v>0.106171962000701</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>11.67754066666667</v>
+      </c>
+      <c r="N23">
+        <v>35.032622</v>
+      </c>
+      <c r="O23">
+        <v>0.2555000268900398</v>
+      </c>
+      <c r="P23">
+        <v>0.2555000268900398</v>
+      </c>
+      <c r="Q23">
+        <v>2.021086458369778</v>
+      </c>
+      <c r="R23">
+        <v>18.189778125328</v>
+      </c>
+      <c r="S23">
+        <v>0.02712693914614738</v>
+      </c>
+      <c r="T23">
+        <v>0.02712693914614739</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.159339462262296</v>
-      </c>
-      <c r="H16">
-        <v>0.159339462262296</v>
-      </c>
-      <c r="I16">
-        <v>0.1699444723646931</v>
-      </c>
-      <c r="J16">
-        <v>0.1699444723646931</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>22.7163399383818</v>
-      </c>
-      <c r="N16">
-        <v>22.7163399383818</v>
-      </c>
-      <c r="O16">
-        <v>0.5454867157395246</v>
-      </c>
-      <c r="P16">
-        <v>0.5454867157395246</v>
-      </c>
-      <c r="Q16">
-        <v>3.619609390349274</v>
-      </c>
-      <c r="R16">
-        <v>3.619609390349274</v>
-      </c>
-      <c r="S16">
-        <v>0.09270245208830283</v>
-      </c>
-      <c r="T16">
-        <v>0.09270245208830283</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.1730746666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.519224</v>
+      </c>
+      <c r="I24">
+        <v>0.106171962000701</v>
+      </c>
+      <c r="J24">
+        <v>0.106171962000701</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>3.130105</v>
+      </c>
+      <c r="N24">
+        <v>9.390314999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.06848547433891598</v>
+      </c>
+      <c r="P24">
+        <v>0.06848547433891598</v>
+      </c>
+      <c r="Q24">
+        <v>0.5417418795066667</v>
+      </c>
+      <c r="R24">
+        <v>4.87567691556</v>
+      </c>
+      <c r="S24">
+        <v>0.00727123717911137</v>
+      </c>
+      <c r="T24">
+        <v>0.00727123717911137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.1730746666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.519224</v>
+      </c>
+      <c r="I25">
+        <v>0.106171962000701</v>
+      </c>
+      <c r="J25">
+        <v>0.106171962000701</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2.949797</v>
+      </c>
+      <c r="N25">
+        <v>8.849391000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.06454040575268606</v>
+      </c>
+      <c r="P25">
+        <v>0.06454040575268606</v>
+      </c>
+      <c r="Q25">
+        <v>0.5105351325093335</v>
+      </c>
+      <c r="R25">
+        <v>4.594816192584</v>
+      </c>
+      <c r="S25">
+        <v>0.006852381507084007</v>
+      </c>
+      <c r="T25">
+        <v>0.006852381507084007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.1730746666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.519224</v>
+      </c>
+      <c r="I26">
+        <v>0.106171962000701</v>
+      </c>
+      <c r="J26">
+        <v>0.106171962000701</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>25.53984366666667</v>
+      </c>
+      <c r="N26">
+        <v>76.61953099999999</v>
+      </c>
+      <c r="O26">
+        <v>0.5588017999566871</v>
+      </c>
+      <c r="P26">
+        <v>0.5588017999566871</v>
+      </c>
+      <c r="Q26">
+        <v>4.420299929327111</v>
+      </c>
+      <c r="R26">
+        <v>39.782699363944</v>
+      </c>
+      <c r="S26">
+        <v>0.05932908347092469</v>
+      </c>
+      <c r="T26">
+        <v>0.05932908347092469</v>
       </c>
     </row>
   </sheetData>
